--- a/medicine/Bioéthique/Claire_Fourcade/Claire_Fourcade.xlsx
+++ b/medicine/Bioéthique/Claire_Fourcade/Claire_Fourcade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Fourcade est une médecin en soins palliatifs française.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Fourcade suit des études de médecine à l'université de Montpellier et souhaitait initialement exercer en réanimation néonatale mais change d'avis lors d'un stage dans un service d'oncologie[1]. Elle suit ensuite une formation en soins palliatifs à Montréal puis rentre en France et exerce en clinique à Narbonne[1].
-En 2015, elle explique le rapport de la Cour des Comptes qui souligne le manque d'effort français dans le domaine des soins palliatifs, notamment en raison de la tarification à l'activité[2].
-Durant la pandémie de Covid-19, Claire Fourcade, alors vice-présidente de la Société française d’accompagnement et de soins palliatifs, estime  que décider ainsi à l'avance du traitement d'un patient est contraire à l'éthique médicale devant les questions de hiérarchisation des patients[3].
-Elle est présidente de la SFAP depuis 2019[4]. Dans les suites du congrès de 2022, elle explique l'importance de l'universalité d’accès de ces soins[5].
-En 2020, elle publie une tribune dans Le Monde pour un meilleur accès aux soins palliatifs[6].
-En 2023, lors de sa participation à la convention citoyenne sur la fin de vie, elle s'oppose à la légalisation de l’euthanasie et du suicide assisté[7], la loi ne pouvant répondre à toutes ces questions sur la fin de vie selon elle[8]. Elle regrette également le manque de moyen pour accéder aux soins palliatifs en France[9]. Sur Aleteia, elle commente l’avis du Comité consultatif national d’éthique (CCNE) qui ne s'oppose pas à l'aide à la fin de vie[10]. Le Figaro publie deux tribunes signées par Claire Fourcade sur le sujet, réagissant à la conclusion de la convention citoyenne[11] et demandant à ce que les soignants soient écoutés[12]. Lorsque le texte de l’avant-projet de loi sur la fin de vie est rendu publique, elle regrette que le monde soignant soit ignoré[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Fourcade suit des études de médecine à l'université de Montpellier et souhaitait initialement exercer en réanimation néonatale mais change d'avis lors d'un stage dans un service d'oncologie. Elle suit ensuite une formation en soins palliatifs à Montréal puis rentre en France et exerce en clinique à Narbonne.
+En 2015, elle explique le rapport de la Cour des Comptes qui souligne le manque d'effort français dans le domaine des soins palliatifs, notamment en raison de la tarification à l'activité.
+Durant la pandémie de Covid-19, Claire Fourcade, alors vice-présidente de la Société française d’accompagnement et de soins palliatifs, estime  que décider ainsi à l'avance du traitement d'un patient est contraire à l'éthique médicale devant les questions de hiérarchisation des patients.
+Elle est présidente de la SFAP depuis 2019. Dans les suites du congrès de 2022, elle explique l'importance de l'universalité d’accès de ces soins.
+En 2020, elle publie une tribune dans Le Monde pour un meilleur accès aux soins palliatifs.
+En 2023, lors de sa participation à la convention citoyenne sur la fin de vie, elle s'oppose à la légalisation de l’euthanasie et du suicide assisté, la loi ne pouvant répondre à toutes ces questions sur la fin de vie selon elle. Elle regrette également le manque de moyen pour accéder aux soins palliatifs en France. Sur Aleteia, elle commente l’avis du Comité consultatif national d’éthique (CCNE) qui ne s'oppose pas à l'aide à la fin de vie. Le Figaro publie deux tribunes signées par Claire Fourcade sur le sujet, réagissant à la conclusion de la convention citoyenne et demandant à ce que les soignants soient écoutés. Lorsque le texte de l’avant-projet de loi sur la fin de vie est rendu publique, elle regrette que le monde soignant soit ignoré.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Fourcade est décorée chevalière de la légion d'honneur en 2021 pour ses 30 ans de service[14].
-En 2022, Claire Fourcade reçoit le prix de l’Académie catholique de France[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Fourcade est décorée chevalière de la légion d'honneur en 2021 pour ses 30 ans de service.
+En 2022, Claire Fourcade reçoit le prix de l’Académie catholique de France.
 </t>
         </is>
       </c>
